--- a/QuantLibXL/Data/XLS/030_CapVolBootstrap/010_Quotes/EUR_010_CapVolsQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/030_CapVolBootstrap/010_Quotes/EUR_010_CapVolsQuotes.xlsx
@@ -10,9 +10,6 @@
     <sheet name="General Settings" sheetId="5" r:id="rId1"/>
     <sheet name="CapVol" sheetId="4" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$16</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$10</definedName>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Currency</t>
   </si>
@@ -139,6 +136,9 @@
   <si>
     <t>File name</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -147,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -775,22 +775,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1087,7 +1071,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="8" customWidth="1"/>
@@ -1099,13 +1083,13 @@
     <col min="8" max="16384" width="8" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="13.5" thickBot="1">
+    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="11" customFormat="1" ht="15.75">
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="73" t="s">
         <v>28</v>
@@ -1114,14 +1098,14 @@
       <c r="D3" s="74"/>
       <c r="E3" s="75"/>
     </row>
-    <row r="4" spans="1:5" s="11" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" s="11" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
@@ -1130,7 +1114,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:5" s="11" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="12"/>
       <c r="C6" s="15" t="s">
@@ -1141,7 +1125,7 @@
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" s="11" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
@@ -1152,7 +1136,7 @@
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" s="11" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
@@ -1163,19 +1147,18 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" s="11" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
       <c r="C9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="18" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\030_CapVolBootstrap\010_Quotes\</v>
+      <c r="D9" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" s="11" customFormat="1" ht="12.75">
+    <row r="10" spans="1:5" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="12"/>
       <c r="C10" s="15" t="s">
@@ -1186,15 +1169,15 @@
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" ht="13.5" thickBot="1">
+    <row r="11" spans="1:5" s="11" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" ht="12" thickBot="1"/>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="73" t="s">
         <v>33</v>
       </c>
@@ -1202,13 +1185,13 @@
       <c r="D13" s="74"/>
       <c r="E13" s="75"/>
     </row>
-    <row r="14" spans="1:5" ht="12.75">
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:5" ht="12.75">
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="15" t="s">
         <v>23</v>
@@ -1218,7 +1201,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="12.75">
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="C16" s="15" t="s">
         <v>0</v>
@@ -1228,7 +1211,7 @@
       </c>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="2:5" ht="13.5" thickBot="1">
+    <row r="17" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -1258,7 +1241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="3" style="2" bestFit="1" customWidth="1"/>
@@ -1270,7 +1253,7 @@
     <col min="20" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="12" thickBot="1">
+    <row r="1" spans="2:19" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="49"/>
       <c r="D1" s="56" t="s">
         <v>13</v>
@@ -1278,7 +1261,7 @@
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
     </row>
-    <row r="2" spans="2:19" ht="12" thickBot="1">
+    <row r="2" spans="2:19" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="62" t="s">
         <v>10</v>
       </c>
@@ -1289,7 +1272,7 @@
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C4" s="57" t="s">
         <v>27</v>
       </c>
@@ -1299,7 +1282,7 @@
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D6" s="61" t="s">
         <v>6</v>
       </c>
@@ -1349,7 +1332,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="29" t="s">
         <v>24</v>
       </c>
@@ -1421,7 +1404,7 @@
         <v>EUR_1Y_3M_1000#0001</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
         <v>24</v>
       </c>
@@ -1493,7 +1476,7 @@
         <v>EUR_18M_3M_1000#0001</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="12" thickBot="1">
+    <row r="9" spans="2:19" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>24</v>
       </c>
@@ -1565,7 +1548,7 @@
         <v>EUR_2Y_3M_1000#0001</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C11" s="49"/>
       <c r="D11" s="61" t="str">
         <f>D6</f>
@@ -1632,7 +1615,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
         <v>25</v>
       </c>
@@ -1704,7 +1687,7 @@
         <v>EUR_3Y_6M_1000#0000</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
         <v>25</v>
       </c>
@@ -1776,7 +1759,7 @@
         <v>EUR_4Y_6M_1000#0001</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="30" t="s">
         <v>25</v>
       </c>
@@ -1848,7 +1831,7 @@
         <v>EUR_5Y_6M_1000#0001</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
         <v>25</v>
       </c>
@@ -1920,7 +1903,7 @@
         <v>EUR_6Y_6M_1000#0001</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="30" t="s">
         <v>25</v>
       </c>
@@ -1992,7 +1975,7 @@
         <v>EUR_7Y_6M_1000#0000</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="30" t="s">
         <v>25</v>
       </c>
@@ -2064,7 +2047,7 @@
         <v>EUR_8Y_6M_1000#0001</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="30" t="s">
         <v>25</v>
       </c>
@@ -2136,7 +2119,7 @@
         <v>EUR_9Y_6M_1000#0001</v>
       </c>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
         <v>25</v>
       </c>
@@ -2208,7 +2191,7 @@
         <v>EUR_10Y_6M_1000#0001</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
         <v>25</v>
       </c>
@@ -2280,7 +2263,7 @@
         <v>EUR_12Y_6M_1000#0001</v>
       </c>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="30" t="s">
         <v>25</v>
       </c>
@@ -2352,7 +2335,7 @@
         <v>EUR_15Y_6M_1000#0001</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="30" t="s">
         <v>25</v>
       </c>
@@ -2424,7 +2407,7 @@
         <v>EUR_20Y_6M_1000#0001</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="30" t="s">
         <v>25</v>
       </c>
@@ -2496,7 +2479,7 @@
         <v>EUR_25Y_6M_1000#0001</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="12" thickBot="1">
+    <row r="24" spans="2:19" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>25</v>
       </c>
@@ -2568,13 +2551,13 @@
         <v>EUR_30Y_6M_1000#0001</v>
       </c>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:19" ht="12" thickBot="1">
+    <row r="26" spans="2:19" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:19" ht="12" thickBot="1">
+    <row r="27" spans="2:19" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="65" t="s">
         <v>34</v>
       </c>
@@ -2596,10 +2579,10 @@
       <c r="R27" s="47"/>
       <c r="S27" s="48"/>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:19">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="46" t="s">
         <v>35</v>
@@ -2610,19 +2593,19 @@
       <c r="E29" s="70"/>
       <c r="F29" s="70"/>
     </row>
-    <row r="30" spans="2:19">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C30" s="66" t="str">
         <f>QuotePrefix&amp;"010_CapVolsQuotes3M.xml"</f>
         <v>EUR_010_CapVolsQuotes3M.xml</v>
       </c>
-      <c r="D30" s="45" t="e">
+      <c r="D30" s="45">
         <f>IF(Serialize,_xll.ohObjectSave(D7:S9,SerializationPath&amp;C30,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <v>48</v>
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="71"/>
     </row>
-    <row r="31" spans="2:19">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C31" s="44"/>
       <c r="D31" s="51" t="str">
         <f>D6</f>
@@ -2683,7 +2666,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C32" s="32" t="str">
         <f>C7</f>
         <v>1Y</v>
@@ -2753,7 +2736,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:19">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C33" s="33" t="str">
         <f>C8</f>
         <v>18M</v>
@@ -2823,7 +2806,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:19">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C34" s="34" t="str">
         <f>C9</f>
         <v>2Y</v>
@@ -2893,19 +2876,19 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="3:19">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C35" s="66" t="str">
         <f>QuotePrefix&amp;"010_CapVolsQuotes6M.xml"</f>
         <v>EUR_010_CapVolsQuotes6M.xml</v>
       </c>
-      <c r="D35" s="45" t="e">
+      <c r="D35" s="45">
         <f>IF(Serialize,_xll.ohObjectSave(D12:S24,SerializationPath&amp;C35,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <v>208</v>
       </c>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
     </row>
-    <row r="36" spans="3:19">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C36" s="44"/>
       <c r="D36" s="51" t="str">
         <f>D11</f>
@@ -2966,7 +2949,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="3:19">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C37" s="53" t="str">
         <f t="shared" ref="C37:C49" si="3">C12</f>
         <v>3Y</v>
@@ -3036,7 +3019,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:19">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C38" s="54" t="str">
         <f t="shared" si="3"/>
         <v>4Y</v>
@@ -3106,7 +3089,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="3:19">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C39" s="54" t="str">
         <f t="shared" si="3"/>
         <v>5Y</v>
@@ -3176,7 +3159,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:19">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C40" s="54" t="str">
         <f t="shared" si="3"/>
         <v>6Y</v>
@@ -3246,7 +3229,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:19">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C41" s="54" t="str">
         <f t="shared" si="3"/>
         <v>7Y</v>
@@ -3316,7 +3299,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:19">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C42" s="54" t="str">
         <f t="shared" si="3"/>
         <v>8Y</v>
@@ -3386,7 +3369,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="3:19">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C43" s="54" t="str">
         <f t="shared" si="3"/>
         <v>9Y</v>
@@ -3456,7 +3439,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="3:19">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C44" s="54" t="str">
         <f t="shared" si="3"/>
         <v>10Y</v>
@@ -3526,7 +3509,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="3:19">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C45" s="54" t="str">
         <f t="shared" si="3"/>
         <v>12Y</v>
@@ -3596,7 +3579,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="3:19">
+    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C46" s="54" t="str">
         <f t="shared" si="3"/>
         <v>15Y</v>
@@ -3666,7 +3649,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="3:19">
+    <row r="47" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C47" s="54" t="str">
         <f t="shared" si="3"/>
         <v>20Y</v>
@@ -3736,7 +3719,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="3:19">
+    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C48" s="54" t="str">
         <f t="shared" si="3"/>
         <v>25Y</v>
@@ -3806,7 +3789,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:19">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="55" t="str">
         <f t="shared" si="3"/>
         <v>30Y</v>

--- a/QuantLibXL/Data/XLS/030_CapVolBootstrap/010_Quotes/EUR_010_CapVolsQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/030_CapVolBootstrap/010_Quotes/EUR_010_CapVolsQuotes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Currency</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>File name</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1150,9 @@
       <c r="C9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>36</v>
+      <c r="D9" s="18" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\030_CapVolBootstrap\010_Quotes\</v>
       </c>
       <c r="E9" s="17"/>
     </row>
@@ -2598,9 +2596,9 @@
         <f>QuotePrefix&amp;"010_CapVolsQuotes3M.xml"</f>
         <v>EUR_010_CapVolsQuotes3M.xml</v>
       </c>
-      <c r="D30" s="45">
-        <f>IF(Serialize,_xll.ohObjectSave(D7:S9,SerializationPath&amp;C30,FileOverwrite,Serialize),"--")</f>
-        <v>48</v>
+      <c r="D30" s="45" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D7:S9,SerializationPath&amp;C30,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="71"/>
@@ -2881,9 +2879,9 @@
         <f>QuotePrefix&amp;"010_CapVolsQuotes6M.xml"</f>
         <v>EUR_010_CapVolsQuotes6M.xml</v>
       </c>
-      <c r="D35" s="45">
-        <f>IF(Serialize,_xll.ohObjectSave(D12:S24,SerializationPath&amp;C35,FileOverwrite,Serialize),"--")</f>
-        <v>208</v>
+      <c r="D35" s="45" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D12:S24,SerializationPath&amp;C35,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
